--- a/data/superflex/Postdraft_Rookies.xlsx
+++ b/data/superflex/Postdraft_Rookies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28a1ee50a88aa706/python_work/Dynasty_tools/data/superflex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{F715F125-FACE-4CDD-A872-54B69401BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F8B782D-7520-4E50-9E8D-53362B990226}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="8_{F715F125-FACE-4CDD-A872-54B69401BE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10E267B8-B0D3-4721-AE0B-44AF79C23879}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
+    <workbookView xWindow="160" yWindow="15400" windowWidth="20840" windowHeight="15460" xr2:uid="{848F5EBF-908A-44A9-800B-7860AC94F392}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,6 +259,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,7 +585,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
